--- a/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_spearman.xlsx
+++ b/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_spearman.xlsx
@@ -473,61 +473,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['POLSKA']</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[0.20608695652173914]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.008695652173913044]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.3339723271430127]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.967832994170269]</t>
-        </is>
+          <t>PODLASKIE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.4739130434782609</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8991304347826086</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01931158001008252</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.361790509849266e-09</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['POMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[0.7730434782608695]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[-0.9693411840369826]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[9.492623353144855e-06]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[6.726707704867023e-15]</t>
-        </is>
+          <t>MAZOWIECKIE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9017391304347826</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.9199999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.79262615407903e-09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.037424643847237e-10</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -539,61 +523,45 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>['LUBELSKIE']</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[0.10086956521739131]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.8956521739130434]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0.6390859319090778]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[3.3725335305644837e-09]</t>
-        </is>
+          <t>LUBUSKIE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1921739130434782</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07739130434782608</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3683204887556274</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7192671455433247</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['LUBUSKIE']</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[0.19217391304347822]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.07739130434782608]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.3683204887556274]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0.7192671455433247]</t>
-        </is>
+          <t>WARMIŃSKO-MAZURSKIE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1895652173913043</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.07653837971759038</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3749803911439147</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7222410433744093</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -605,97 +573,73 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>['ŚLĄSKIE']</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[0.25565217391304346]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.8669565217391304]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[0.22791835585505182]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[4.250113483030371e-08]</t>
-        </is>
+          <t>KUJAWSKO-POMORSKIE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2130434782608696</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1417391304347826</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3175452524512913</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5088324543263878</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>['PODLASKIE']</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[-0.47391304347826085]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0.8991304347826086]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[0.019311580010082523]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[2.3617905098492657e-09]</t>
-        </is>
+          <t>POLSKA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2060869565217391</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.008695652173913044</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3339723271430127</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.967832994170269</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['MAZOWIECKIE']</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[0.9017391304347826]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-0.9199999999999999]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[1.79262615407903e-09]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[2.037424643847237e-10]</t>
-        </is>
+          <t>OPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2339130434782608</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9306371170207012</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2712835998286823</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.460283221887646e-11</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -704,31 +648,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>['ŚWIĘTOKRZYSKIE']</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[-0.5956521739130434]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[0.9252173913043478]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[0.0021325986338807572]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[9.945790694086241e-11]</t>
-        </is>
+          <t>ŚLĄSKIE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2556521739130435</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8669565217391304</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2279183558550518</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.250113483030371e-08</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -737,127 +673,95 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>['WIELKOPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[-0.8582608695652173]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[-0.9602087637297702]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[8.174716310276894e-08]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[1.1347446858712516e-13]</t>
-        </is>
+          <t>ZACHODNIOPOMORSKIE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3347826086956522</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.008262665992239871</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1098035359218697</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.969433951102915</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['DOLNOŚLĄSKIE']</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[-0.32956521739130434]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[0.29913043478260865]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[0.11580045288804089]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[0.155619554462795]</t>
-        </is>
+          <t>MAŁOPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8208695652173912</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.9234782608695651</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.934346201224865e-07</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.270247031729596e-10</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>['OPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[-0.23391304347826083]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[0.9306371170207012]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[0.27128359982868233]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[4.460283221887646e-11]</t>
-        </is>
+          <t>PODKARPACKIE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.008695652173913044</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.03478260869565217</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.967832994170269</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8718168719786574</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>['ŁÓDZKIE']</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[0.054782608695652164]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[0.9643478260869565]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[0.799308243488264]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[3.4558658070988553e-14]</t>
-        </is>
+          <t>LUBELSKIE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1008695652173913</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8956521739130434</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6390859319090778</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.372533530564484e-09</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -869,127 +773,95 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['WARMIŃSKO-MAZURSKIE']</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[-0.18956521739130433]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[0.07653837971759038]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[0.3749803911439147]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[0.7222410433744093]</t>
-        </is>
+          <t>POMORSKIE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7730434782608695</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.9693411840369826</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.492623353144855e-06</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.726707704867023e-15</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>['ZACHODNIOPOMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[0.3347826086956522]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[0.00826266599223987]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[0.10980353592186973]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[0.969433951102915]</t>
-        </is>
+          <t>ŁÓDZKIE</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.05478260869565216</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9643478260869565</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.799308243488264</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.455865807098855e-14</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>['PODKARPACKIE']</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[-0.008695652173913044]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[-0.034782608695652174]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[0.967832994170269]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[0.8718168719786574]</t>
-        </is>
+          <t>WIELKOPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.8582608695652173</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.9602087637297702</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.174716310276894e-08</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.134744685871252e-13</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>['MAŁOPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[-0.8208695652173912]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[-0.9234782608695651]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[8.934346201224865e-07]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[1.2702470317295964e-10]</t>
-        </is>
+          <t>ŚWIĘTOKRZYSKIE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.5956521739130434</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9252173913043478</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.002132598633880757</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9.945790694086241e-11</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1001,28 +873,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>['KUJAWSKO-POMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[-0.21304347826086956]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[-0.1417391304347826]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[0.31754525245129134]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[0.5088324543263878]</t>
-        </is>
+          <t>DOLNOŚLĄSKIE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.3295652173913043</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2991304347826086</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1158004528880409</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.155619554462795</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>

--- a/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_spearman.xlsx
+++ b/Results/Test_Powietrze_99_Gruzlica_99_Ludnosc_99_spearman.xlsx
@@ -1,37 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Eksploracja danych\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592E5906-E85C-4DA9-A8A2-137B7DEACC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Administrative_Unit</t>
+  </si>
+  <si>
+    <t>Correlation_1_3</t>
+  </si>
+  <si>
+    <t>Correlation_2_3</t>
+  </si>
+  <si>
+    <t>P-Value_1_3</t>
+  </si>
+  <si>
+    <t>P-Value_2_3</t>
+  </si>
+  <si>
+    <t>Significance_1_3</t>
+  </si>
+  <si>
+    <t>Significance_2_3</t>
+  </si>
+  <si>
+    <t>PODLASKIE</t>
+  </si>
+  <si>
+    <t>MAZOWIECKIE</t>
+  </si>
+  <si>
+    <t>LUBUSKIE</t>
+  </si>
+  <si>
+    <t>WARMIŃSKO-MAZURSKIE</t>
+  </si>
+  <si>
+    <t>KUJAWSKO-POMORSKIE</t>
+  </si>
+  <si>
+    <t>POLSKA</t>
+  </si>
+  <si>
+    <t>OPOLSKIE</t>
+  </si>
+  <si>
+    <t>ŚLĄSKIE</t>
+  </si>
+  <si>
+    <t>ZACHODNIOPOMORSKIE</t>
+  </si>
+  <si>
+    <t>MAŁOPOLSKIE</t>
+  </si>
+  <si>
+    <t>PODKARPACKIE</t>
+  </si>
+  <si>
+    <t>LUBELSKIE</t>
+  </si>
+  <si>
+    <t>POMORSKIE</t>
+  </si>
+  <si>
+    <t>ŁÓDZKIE</t>
+  </si>
+  <si>
+    <t>WIELKOPOLSKIE</t>
+  </si>
+  <si>
+    <t>ŚWIĘTOKRZYSKIE</t>
+  </si>
+  <si>
+    <t>DOLNOŚLĄSKIE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +129,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,73 +453,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Administrative_Unit</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation_1_3</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation_2_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value_1_3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value_2_3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Significance_1_3</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Significance_2_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PODLASKIE</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.4739130434782609</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8991304347826086</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01931158001008252</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.361790509849266e-09</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>-0.47391304347826091</v>
+      </c>
+      <c r="C2">
+        <v>0.89913043478260857</v>
+      </c>
+      <c r="D2">
+        <v>1.931158001008252E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.3617905098492662E-9</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -495,23 +514,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MAZOWIECKIE</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>0.9017391304347826</v>
       </c>
-      <c r="C3" t="n">
-        <v>-0.9199999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.79262615407903e-09</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.037424643847237e-10</v>
+      <c r="C3">
+        <v>-0.91999999999999993</v>
+      </c>
+      <c r="D3">
+        <v>1.7926261540790299E-9</v>
+      </c>
+      <c r="E3">
+        <v>2.0374246438472371E-10</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -520,23 +537,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LUBUSKIE</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>0.1921739130434782</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.07739130434782608</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>7.7391304347826081E-2</v>
+      </c>
+      <c r="D4">
         <v>0.3683204887556274</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.7192671455433247</v>
+      <c r="E4">
+        <v>0.71926714554332472</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -545,23 +560,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>WARMIŃSKO-MAZURSKIE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>-0.1895652173913043</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.07653837971759038</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3749803911439147</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7222410433744093</v>
+      <c r="C5">
+        <v>7.653837971759038E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.37498039114391468</v>
+      </c>
+      <c r="E5">
+        <v>0.72224104337440931</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -570,22 +583,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KUJAWSKO-POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.2130434782608696</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.1417391304347826</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3175452524512913</v>
-      </c>
-      <c r="E6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>-0.21304347826086961</v>
+      </c>
+      <c r="C6">
+        <v>-0.14173913043478259</v>
+      </c>
+      <c r="D6">
+        <v>0.31754525245129128</v>
+      </c>
+      <c r="E6">
         <v>0.5088324543263878</v>
       </c>
       <c r="F6" t="b">
@@ -595,23 +606,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>POLSKA</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2060869565217391</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.008695652173913044</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3339723271430127</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.967832994170269</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.20608695652173911</v>
+      </c>
+      <c r="C7">
+        <v>8.6956521739130436E-3</v>
+      </c>
+      <c r="D7">
+        <v>0.33397232714301273</v>
+      </c>
+      <c r="E7">
+        <v>0.96783299417026902</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -620,23 +629,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>OPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.2339130434782608</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9306371170207012</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2712835998286823</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.460283221887646e-11</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>-0.23391304347826081</v>
+      </c>
+      <c r="C8">
+        <v>0.93063711702070118</v>
+      </c>
+      <c r="D8">
+        <v>0.27128359982868228</v>
+      </c>
+      <c r="E8">
+        <v>4.4602832218876462E-11</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -645,23 +652,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.2556521739130435</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.25565217391304351</v>
+      </c>
+      <c r="C9">
         <v>0.8669565217391304</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.2279183558550518</v>
       </c>
-      <c r="E9" t="n">
-        <v>4.250113483030371e-08</v>
+      <c r="E9">
+        <v>4.250113483030371E-8</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -670,23 +675,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ZACHODNIOPOMORSKIE</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.3347826086956522</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.008262665992239871</v>
-      </c>
-      <c r="D10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.33478260869565218</v>
+      </c>
+      <c r="C10">
+        <v>8.2626659922398708E-3</v>
+      </c>
+      <c r="D10">
         <v>0.1098035359218697</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.969433951102915</v>
+      <c r="E10">
+        <v>0.96943395110291497</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -695,23 +698,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MAŁOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.8208695652173912</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.9234782608695651</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8.934346201224865e-07</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.270247031729596e-10</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>-0.82086956521739118</v>
+      </c>
+      <c r="C11">
+        <v>-0.92347826086956508</v>
+      </c>
+      <c r="D11">
+        <v>8.9343462012248647E-7</v>
+      </c>
+      <c r="E11">
+        <v>1.2702470317295959E-10</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -720,23 +721,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PODKARPACKIE</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.008695652173913044</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.03478260869565217</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.967832994170269</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.8718168719786574</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>-8.6956521739130436E-3</v>
+      </c>
+      <c r="C12">
+        <v>-3.4782608695652167E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.96783299417026902</v>
+      </c>
+      <c r="E12">
+        <v>0.87181687197865743</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -745,23 +744,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>LUBELSKIE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.1008695652173913</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8956521739130434</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6390859319090778</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.372533530564484e-09</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.10086956521739129</v>
+      </c>
+      <c r="C13">
+        <v>0.89565217391304341</v>
+      </c>
+      <c r="D13">
+        <v>0.63908593190907781</v>
+      </c>
+      <c r="E13">
+        <v>3.3725335305644841E-9</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -770,23 +767,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
         <v>0.7730434782608695</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.9693411840369826</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9.492623353144855e-06</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.726707704867023e-15</v>
+      <c r="C14">
+        <v>-0.96934118403698255</v>
+      </c>
+      <c r="D14">
+        <v>9.4926233531448552E-6</v>
+      </c>
+      <c r="E14">
+        <v>6.7267077048670229E-15</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -795,23 +790,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ŁÓDZKIE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.05478260869565216</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9643478260869565</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.799308243488264</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.455865807098855e-14</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>5.4782608695652157E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.96434782608695646</v>
+      </c>
+      <c r="D15">
+        <v>0.79930824348826401</v>
+      </c>
+      <c r="E15">
+        <v>3.4558658070988547E-14</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -820,23 +813,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>WIELKOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
         <v>-0.8582608695652173</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.9602087637297702</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8.174716310276894e-08</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.134744685871252e-13</v>
+      <c r="C16">
+        <v>-0.96020876372977015</v>
+      </c>
+      <c r="D16">
+        <v>8.1747163102768939E-8</v>
+      </c>
+      <c r="E16">
+        <v>1.134744685871252E-13</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -845,23 +836,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ŚWIĘTOKRZYSKIE</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.5956521739130434</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9252173913043478</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.002132598633880757</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.945790694086241e-11</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>-0.59565217391304337</v>
+      </c>
+      <c r="C17">
+        <v>0.92521739130434777</v>
+      </c>
+      <c r="D17">
+        <v>2.1325986338807568E-3</v>
+      </c>
+      <c r="E17">
+        <v>9.9457906940862414E-11</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -870,23 +859,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DOLNOŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.3295652173913043</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2991304347826086</v>
-      </c>
-      <c r="D18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>-0.32956521739130429</v>
+      </c>
+      <c r="C18">
+        <v>0.29913043478260859</v>
+      </c>
+      <c r="D18">
         <v>0.1158004528880409</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.155619554462795</v>
+      <c r="E18">
+        <v>0.15561955446279499</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
